--- a/matlab/传感器数据处理-大三上/4热电偶测温性能实验/data.xlsx
+++ b/matlab/传感器数据处理-大三上/4热电偶测温性能实验/data.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\university-learning-code\matlab\传感器数据处理-大三上\4热电偶测温性能实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\university-learning-code\matlab\传感器数据处理-大三上\4热电偶测温性能实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E931B635-4215-4B3F-846F-9BFFBC9C34AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ECBE84-EF99-4FA6-8512-715FCF7BE422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -360,12 +369,12 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,39 +409,39 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D2">
-        <v>5.9</v>
+        <v>-5.9</v>
       </c>
       <c r="E2">
-        <v>6.9</v>
+        <v>-6.9</v>
       </c>
       <c r="F2">
-        <v>8.1</v>
+        <v>-8.1</v>
       </c>
       <c r="G2">
-        <v>9.5</v>
+        <v>-9.5</v>
       </c>
       <c r="H2">
-        <v>10.6</v>
+        <v>-10.6</v>
       </c>
       <c r="I2">
-        <v>11.8</v>
+        <v>-11.8</v>
       </c>
       <c r="J2">
-        <v>13.4</v>
+        <v>-13.4</v>
       </c>
       <c r="K2">
-        <v>14.6</v>
+        <v>-14.6</v>
       </c>
     </row>
   </sheetData>
